--- a/src/result.xlsx
+++ b/src/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Conta</t>
   </si>
@@ -70,7 +70,13 @@
     <t>Comentário</t>
   </si>
   <si>
-    <t>Non-Labor</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Fiscal Period Description</t>
+  </si>
+  <si>
+    <t>Despesas Operacionais</t>
   </si>
   <si>
     <t>Manutenção</t>
@@ -200,6 +206,48 @@
   </si>
   <si>
     <t>40121122 Materiais de suprimentos de informatica</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
   </si>
 </sst>
 </file>
@@ -557,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,106 +671,82 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>4963678.56</v>
-      </c>
-      <c r="C2">
-        <v>4824260.05</v>
-      </c>
-      <c r="D2">
-        <v>27279.43</v>
-      </c>
-      <c r="E2">
-        <v>575859.74</v>
-      </c>
-      <c r="F2">
-        <v>509732.31</v>
-      </c>
-      <c r="G2">
-        <v>416774.01</v>
-      </c>
-      <c r="H2">
-        <v>434986.77</v>
-      </c>
-      <c r="I2">
-        <v>408738.5</v>
-      </c>
-      <c r="J2">
-        <v>408738.5</v>
-      </c>
-      <c r="K2">
-        <v>408738.5</v>
-      </c>
-      <c r="L2">
-        <v>408738.49</v>
-      </c>
-      <c r="M2">
-        <v>408738.51</v>
-      </c>
-      <c r="N2">
-        <v>408738.49</v>
-      </c>
-      <c r="O2">
-        <v>407196.8</v>
-      </c>
-      <c r="P2">
-        <v>-139418.5099999998</v>
-      </c>
-      <c r="Q2">
-        <v>-650.8500000005588</v>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>167266.32</v>
-      </c>
-      <c r="C3">
-        <v>174072.54</v>
-      </c>
-      <c r="D3">
-        <v>-220921.65</v>
-      </c>
-      <c r="E3">
-        <v>237949.53</v>
-      </c>
-      <c r="F3">
-        <v>25550.34</v>
-      </c>
-      <c r="G3">
-        <v>6198.53</v>
-      </c>
-      <c r="H3">
-        <v>19450.38</v>
-      </c>
-      <c r="I3">
-        <v>15023.83</v>
-      </c>
-      <c r="J3">
-        <v>15023.83</v>
-      </c>
-      <c r="K3">
-        <v>15023.83</v>
-      </c>
-      <c r="L3">
-        <v>15023.83</v>
-      </c>
-      <c r="M3">
-        <v>15023.83</v>
-      </c>
-      <c r="N3">
-        <v>15702.43</v>
-      </c>
-      <c r="O3">
-        <v>15023.83</v>
-      </c>
-      <c r="P3">
-        <v>6806.220000000001</v>
-      </c>
-      <c r="Q3">
-        <v>5105.149999999994</v>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -730,43 +754,52 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>16884.24</v>
+        <v>4963678.56</v>
       </c>
       <c r="C4">
-        <v>10130.52</v>
+        <v>4824260.05</v>
       </c>
       <c r="D4">
-        <v>-235339.53</v>
+        <v>27279.43</v>
       </c>
       <c r="E4">
-        <v>235339.53</v>
+        <v>575859.74</v>
+      </c>
+      <c r="F4">
+        <v>509732.31</v>
+      </c>
+      <c r="G4">
+        <v>416774.01</v>
+      </c>
+      <c r="H4">
+        <v>434986.77</v>
       </c>
       <c r="I4">
-        <v>1688.42</v>
+        <v>408738.5</v>
       </c>
       <c r="J4">
-        <v>1688.42</v>
+        <v>408738.5</v>
       </c>
       <c r="K4">
-        <v>1688.42</v>
+        <v>408738.5</v>
       </c>
       <c r="L4">
-        <v>1688.42</v>
+        <v>408738.49</v>
       </c>
       <c r="M4">
-        <v>1688.42</v>
+        <v>408738.51</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>408738.49</v>
       </c>
       <c r="O4">
-        <v>1688.42</v>
+        <v>407196.8</v>
       </c>
       <c r="P4">
-        <v>-6753.720000000001</v>
+        <v>-139418.5099999998</v>
       </c>
       <c r="Q4">
-        <v>-3376.84</v>
+        <v>-650.8500000005588</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -774,52 +807,52 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>140000.04</v>
+        <v>167266.32</v>
       </c>
       <c r="C5">
-        <v>152320.19</v>
+        <v>174072.54</v>
       </c>
       <c r="D5">
-        <v>14417.88</v>
+        <v>-220921.65</v>
       </c>
       <c r="E5">
-        <v>2610</v>
+        <v>237949.53</v>
       </c>
       <c r="F5">
-        <v>24974</v>
+        <v>25550.34</v>
       </c>
       <c r="G5">
-        <v>5351</v>
+        <v>6198.53</v>
       </c>
       <c r="H5">
-        <v>19407.23</v>
+        <v>19450.38</v>
       </c>
       <c r="I5">
-        <v>12297.21</v>
+        <v>15023.83</v>
       </c>
       <c r="J5">
-        <v>12297.21</v>
+        <v>15023.83</v>
       </c>
       <c r="K5">
-        <v>12297.21</v>
+        <v>15023.83</v>
       </c>
       <c r="L5">
-        <v>12297.21</v>
+        <v>15023.83</v>
       </c>
       <c r="M5">
-        <v>12297.21</v>
+        <v>15023.83</v>
       </c>
       <c r="N5">
-        <v>11776.82</v>
+        <v>15702.43</v>
       </c>
       <c r="O5">
-        <v>12297.21</v>
+        <v>15023.83</v>
       </c>
       <c r="P5">
-        <v>12320.14999999999</v>
+        <v>6806.220000000001</v>
       </c>
       <c r="Q5">
-        <v>6589.630000000005</v>
+        <v>5105.149999999994</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -827,46 +860,43 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>10382.04</v>
+        <v>16884.24</v>
       </c>
       <c r="C6">
-        <v>11621.83</v>
-      </c>
-      <c r="F6">
-        <v>576.34</v>
-      </c>
-      <c r="G6">
-        <v>847.53</v>
-      </c>
-      <c r="H6">
-        <v>43.15</v>
+        <v>10130.52</v>
+      </c>
+      <c r="D6">
+        <v>-235339.53</v>
+      </c>
+      <c r="E6">
+        <v>235339.53</v>
       </c>
       <c r="I6">
-        <v>1038.2</v>
+        <v>1688.42</v>
       </c>
       <c r="J6">
-        <v>1038.2</v>
+        <v>1688.42</v>
       </c>
       <c r="K6">
-        <v>1038.2</v>
+        <v>1688.42</v>
       </c>
       <c r="L6">
-        <v>1038.2</v>
+        <v>1688.42</v>
       </c>
       <c r="M6">
-        <v>1038.2</v>
+        <v>1688.42</v>
       </c>
       <c r="N6">
-        <v>3925.61</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1038.2</v>
+        <v>1688.42</v>
       </c>
       <c r="P6">
-        <v>1239.789999999999</v>
+        <v>-6753.720000000001</v>
       </c>
       <c r="Q6">
-        <v>1892.360000000001</v>
+        <v>-3376.84</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -874,49 +904,52 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>276000</v>
+        <v>140000.04</v>
       </c>
       <c r="C7">
-        <v>198173.4</v>
+        <v>152320.19</v>
+      </c>
+      <c r="D7">
+        <v>14417.88</v>
       </c>
       <c r="E7">
-        <v>273.34</v>
+        <v>2610</v>
       </c>
       <c r="F7">
-        <v>410.71</v>
+        <v>24974</v>
       </c>
       <c r="G7">
-        <v>4074.84</v>
+        <v>5351</v>
       </c>
       <c r="H7">
-        <v>499.3</v>
+        <v>19407.23</v>
       </c>
       <c r="I7">
-        <v>27572.66</v>
+        <v>12297.21</v>
       </c>
       <c r="J7">
-        <v>27572.66</v>
+        <v>12297.21</v>
       </c>
       <c r="K7">
-        <v>27572.66</v>
+        <v>12297.21</v>
       </c>
       <c r="L7">
-        <v>27572.66</v>
+        <v>12297.21</v>
       </c>
       <c r="M7">
-        <v>27572.66</v>
+        <v>12297.21</v>
       </c>
       <c r="N7">
-        <v>27479.25</v>
+        <v>11776.82</v>
       </c>
       <c r="O7">
-        <v>27572.66</v>
+        <v>12297.21</v>
       </c>
       <c r="P7">
-        <v>-77826.60000000001</v>
+        <v>12320.14999999999</v>
       </c>
       <c r="Q7">
-        <v>-27166.77000000002</v>
+        <v>6589.630000000005</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -924,49 +957,46 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>276000</v>
+        <v>10382.04</v>
       </c>
       <c r="C8">
-        <v>198173.4</v>
-      </c>
-      <c r="E8">
-        <v>273.34</v>
+        <v>11621.83</v>
       </c>
       <c r="F8">
-        <v>410.71</v>
+        <v>576.34</v>
       </c>
       <c r="G8">
-        <v>4074.84</v>
+        <v>847.53</v>
       </c>
       <c r="H8">
-        <v>499.3</v>
+        <v>43.15</v>
       </c>
       <c r="I8">
-        <v>27572.66</v>
+        <v>1038.2</v>
       </c>
       <c r="J8">
-        <v>27572.66</v>
+        <v>1038.2</v>
       </c>
       <c r="K8">
-        <v>27572.66</v>
+        <v>1038.2</v>
       </c>
       <c r="L8">
-        <v>27572.66</v>
+        <v>1038.2</v>
       </c>
       <c r="M8">
-        <v>27572.66</v>
+        <v>1038.2</v>
       </c>
       <c r="N8">
-        <v>27479.25</v>
+        <v>3925.61</v>
       </c>
       <c r="O8">
-        <v>27572.66</v>
+        <v>1038.2</v>
       </c>
       <c r="P8">
-        <v>-77826.60000000001</v>
+        <v>1239.789999999999</v>
       </c>
       <c r="Q8">
-        <v>-27166.77000000002</v>
+        <v>1892.360000000001</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -974,52 +1004,49 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>1680861.36</v>
+        <v>276000</v>
       </c>
       <c r="C9">
-        <v>1637588.31</v>
-      </c>
-      <c r="D9">
-        <v>85383.95</v>
+        <v>198173.4</v>
       </c>
       <c r="E9">
-        <v>109782.36</v>
+        <v>273.34</v>
       </c>
       <c r="F9">
-        <v>137120.1</v>
+        <v>410.71</v>
       </c>
       <c r="G9">
-        <v>128543.2</v>
+        <v>4074.84</v>
       </c>
       <c r="H9">
-        <v>140093.93</v>
+        <v>499.3</v>
       </c>
       <c r="I9">
-        <v>148569.48</v>
+        <v>27572.66</v>
       </c>
       <c r="J9">
-        <v>148569.49</v>
+        <v>27572.66</v>
       </c>
       <c r="K9">
-        <v>148569.49</v>
+        <v>27572.66</v>
       </c>
       <c r="L9">
-        <v>148569.48</v>
+        <v>27572.66</v>
       </c>
       <c r="M9">
-        <v>148569.49</v>
+        <v>27572.66</v>
       </c>
       <c r="N9">
-        <v>145247.49</v>
+        <v>27479.25</v>
       </c>
       <c r="O9">
-        <v>148569.85</v>
+        <v>27572.66</v>
       </c>
       <c r="P9">
-        <v>-43273.05000000005</v>
+        <v>-77826.60000000001</v>
       </c>
       <c r="Q9">
-        <v>-11797.90999999992</v>
+        <v>-27166.77000000002</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1027,52 +1054,49 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>960000</v>
+        <v>276000</v>
       </c>
       <c r="C10">
-        <v>861129.22</v>
-      </c>
-      <c r="D10">
-        <v>47949.96</v>
+        <v>198173.4</v>
       </c>
       <c r="E10">
-        <v>43613.57</v>
+        <v>273.34</v>
       </c>
       <c r="F10">
-        <v>54929.06</v>
+        <v>410.71</v>
       </c>
       <c r="G10">
-        <v>57120.81</v>
+        <v>4074.84</v>
       </c>
       <c r="H10">
-        <v>50090.25</v>
+        <v>499.3</v>
       </c>
       <c r="I10">
-        <v>86843.64</v>
+        <v>27572.66</v>
       </c>
       <c r="J10">
-        <v>86843.64</v>
+        <v>27572.66</v>
       </c>
       <c r="K10">
-        <v>86843.64</v>
+        <v>27572.66</v>
       </c>
       <c r="L10">
-        <v>86843.64</v>
+        <v>27572.66</v>
       </c>
       <c r="M10">
-        <v>86843.64</v>
+        <v>27572.66</v>
       </c>
       <c r="N10">
-        <v>86363.37</v>
+        <v>27479.25</v>
       </c>
       <c r="O10">
-        <v>86844</v>
+        <v>27572.66</v>
       </c>
       <c r="P10">
-        <v>-98870.78000000003</v>
+        <v>-77826.60000000001</v>
       </c>
       <c r="Q10">
-        <v>-37234.02000000002</v>
+        <v>-27166.77000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1080,52 +1104,52 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>236997.36</v>
+        <v>1680861.36</v>
       </c>
       <c r="C11">
-        <v>248727.08</v>
+        <v>1637588.31</v>
       </c>
       <c r="D11">
-        <v>1931.14</v>
+        <v>85383.95</v>
       </c>
       <c r="E11">
-        <v>31309.47</v>
+        <v>109782.36</v>
       </c>
       <c r="F11">
-        <v>27363.61</v>
+        <v>137120.1</v>
       </c>
       <c r="G11">
-        <v>7143.68</v>
+        <v>128543.2</v>
       </c>
       <c r="H11">
-        <v>35171.47</v>
+        <v>140093.93</v>
       </c>
       <c r="I11">
-        <v>20375.67</v>
+        <v>148569.48</v>
       </c>
       <c r="J11">
-        <v>20375.68</v>
+        <v>148569.49</v>
       </c>
       <c r="K11">
-        <v>20375.68</v>
+        <v>148569.49</v>
       </c>
       <c r="L11">
-        <v>20375.67</v>
+        <v>148569.48</v>
       </c>
       <c r="M11">
-        <v>20375.68</v>
+        <v>148569.49</v>
       </c>
       <c r="N11">
-        <v>23553.65</v>
+        <v>145247.49</v>
       </c>
       <c r="O11">
-        <v>20375.68</v>
+        <v>148569.85</v>
       </c>
       <c r="P11">
-        <v>11729.72</v>
+        <v>-43273.05000000005</v>
       </c>
       <c r="Q11">
-        <v>17973.76999999999</v>
+        <v>-11797.90999999992</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1133,52 +1157,52 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>233864.04</v>
+        <v>960000</v>
       </c>
       <c r="C12">
-        <v>275724.83</v>
+        <v>861129.22</v>
       </c>
       <c r="D12">
-        <v>29258.58</v>
+        <v>47949.96</v>
       </c>
       <c r="E12">
-        <v>23793</v>
+        <v>43613.57</v>
       </c>
       <c r="F12">
-        <v>27556.72</v>
+        <v>54929.06</v>
       </c>
       <c r="G12">
-        <v>33841.22</v>
+        <v>57120.81</v>
       </c>
       <c r="H12">
-        <v>37085.43</v>
+        <v>50090.25</v>
       </c>
       <c r="I12">
-        <v>18081.24</v>
+        <v>86843.64</v>
       </c>
       <c r="J12">
-        <v>18081.24</v>
+        <v>86843.64</v>
       </c>
       <c r="K12">
-        <v>18081.24</v>
+        <v>86843.64</v>
       </c>
       <c r="L12">
-        <v>18081.24</v>
+        <v>86843.64</v>
       </c>
       <c r="M12">
-        <v>18081.24</v>
+        <v>86843.64</v>
       </c>
       <c r="N12">
-        <v>15702.44</v>
+        <v>86363.37</v>
       </c>
       <c r="O12">
-        <v>18081.24</v>
+        <v>86844</v>
       </c>
       <c r="P12">
-        <v>41860.79000000001</v>
+        <v>-98870.78000000003</v>
       </c>
       <c r="Q12">
-        <v>16625.39000000001</v>
+        <v>-37234.02000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1186,52 +1210,52 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>249999.96</v>
+        <v>236997.36</v>
       </c>
       <c r="C13">
-        <v>252007.18</v>
+        <v>248727.08</v>
       </c>
       <c r="D13">
-        <v>6244.27</v>
+        <v>1931.14</v>
       </c>
       <c r="E13">
-        <v>11066.32</v>
+        <v>31309.47</v>
       </c>
       <c r="F13">
-        <v>27270.71</v>
+        <v>27363.61</v>
       </c>
       <c r="G13">
-        <v>30437.49</v>
+        <v>7143.68</v>
       </c>
       <c r="H13">
-        <v>17746.78</v>
+        <v>35171.47</v>
       </c>
       <c r="I13">
-        <v>23268.93</v>
+        <v>20375.67</v>
       </c>
       <c r="J13">
-        <v>23268.93</v>
+        <v>20375.68</v>
       </c>
       <c r="K13">
-        <v>23268.93</v>
+        <v>20375.68</v>
       </c>
       <c r="L13">
-        <v>23268.93</v>
+        <v>20375.67</v>
       </c>
       <c r="M13">
-        <v>23268.93</v>
+        <v>20375.68</v>
       </c>
       <c r="N13">
-        <v>19628.03</v>
+        <v>23553.65</v>
       </c>
       <c r="O13">
-        <v>23268.93</v>
+        <v>20375.68</v>
       </c>
       <c r="P13">
-        <v>2007.220000000001</v>
+        <v>11729.72</v>
       </c>
       <c r="Q13">
-        <v>-9163.050000000017</v>
+        <v>17973.76999999999</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1239,102 +1263,105 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>17917.68</v>
+        <v>233864.04</v>
       </c>
       <c r="C14">
-        <v>36995.45</v>
+        <v>275724.83</v>
       </c>
       <c r="D14">
-        <v>9543.91</v>
+        <v>29258.58</v>
       </c>
       <c r="E14">
-        <v>-6652.89</v>
+        <v>23793</v>
       </c>
       <c r="F14">
-        <v>1566.51</v>
+        <v>27556.72</v>
       </c>
       <c r="G14">
-        <v>6510.61</v>
+        <v>33841.22</v>
       </c>
       <c r="H14">
-        <v>15508.35</v>
+        <v>37085.43</v>
       </c>
       <c r="I14">
-        <v>1502.66</v>
+        <v>18081.24</v>
       </c>
       <c r="J14">
-        <v>1502.66</v>
+        <v>18081.24</v>
       </c>
       <c r="K14">
-        <v>1502.66</v>
+        <v>18081.24</v>
       </c>
       <c r="L14">
-        <v>1502.66</v>
+        <v>18081.24</v>
       </c>
       <c r="M14">
-        <v>1502.66</v>
+        <v>18081.24</v>
       </c>
       <c r="N14">
-        <v>1502.66</v>
+        <v>15702.44</v>
       </c>
       <c r="O14">
-        <v>1503</v>
+        <v>18081.24</v>
       </c>
       <c r="P14">
-        <v>19077.77</v>
+        <v>41860.79000000001</v>
       </c>
       <c r="Q14">
-        <v>14005.69</v>
+        <v>16625.39000000001</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>31</v>
       </c>
+      <c r="B15">
+        <v>249999.96</v>
+      </c>
       <c r="C15">
-        <v>18827.49</v>
+        <v>252007.18</v>
       </c>
       <c r="D15">
-        <v>8101.16</v>
+        <v>6244.27</v>
       </c>
       <c r="E15">
-        <v>-8101.16</v>
+        <v>11066.32</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>27270.71</v>
       </c>
       <c r="G15">
-        <v>4938.44</v>
+        <v>30437.49</v>
       </c>
       <c r="H15">
-        <v>13889.05</v>
+        <v>17746.78</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>23268.93</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>23268.93</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23268.93</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>23268.93</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>23268.93</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>19628.03</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>23268.93</v>
       </c>
       <c r="P15">
-        <v>18827.49</v>
+        <v>2007.220000000001</v>
       </c>
       <c r="Q15">
-        <v>13889.05</v>
+        <v>-9163.050000000017</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1345,22 +1372,22 @@
         <v>17917.68</v>
       </c>
       <c r="C16">
-        <v>18167.96</v>
+        <v>36995.45</v>
       </c>
       <c r="D16">
-        <v>1442.75</v>
+        <v>9543.91</v>
       </c>
       <c r="E16">
-        <v>1448.27</v>
+        <v>-6652.89</v>
       </c>
       <c r="F16">
         <v>1566.51</v>
       </c>
       <c r="G16">
-        <v>1572.17</v>
+        <v>6510.61</v>
       </c>
       <c r="H16">
-        <v>1619.3</v>
+        <v>15508.35</v>
       </c>
       <c r="I16">
         <v>1502.66</v>
@@ -1384,63 +1411,60 @@
         <v>1503</v>
       </c>
       <c r="P16">
-        <v>250.2799999999988</v>
+        <v>19077.77</v>
       </c>
       <c r="Q16">
-        <v>116.6399999999994</v>
+        <v>14005.69</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>1443764.28</v>
-      </c>
       <c r="C17">
-        <v>1471385.23</v>
+        <v>18827.49</v>
       </c>
       <c r="D17">
-        <v>104137.99</v>
+        <v>8101.16</v>
       </c>
       <c r="E17">
-        <v>21913.03</v>
+        <v>-8101.16</v>
       </c>
       <c r="F17">
-        <v>228705.07</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>193436.55</v>
+        <v>4938.44</v>
       </c>
       <c r="H17">
-        <v>197495.17</v>
+        <v>13889.05</v>
       </c>
       <c r="I17">
-        <v>104313.16</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>104313.16</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>104313.16</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>104313.16</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>104313.16</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>102065.81</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>102065.81</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>27620.94999999995</v>
+        <v>18827.49</v>
       </c>
       <c r="Q17">
-        <v>63330.96999999997</v>
+        <v>13889.05</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,37 +1472,52 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>99999.96000000001</v>
+        <v>17917.68</v>
       </c>
       <c r="C18">
-        <v>65702.37</v>
+        <v>18167.96</v>
+      </c>
+      <c r="D18">
+        <v>1442.75</v>
+      </c>
+      <c r="E18">
+        <v>1448.27</v>
+      </c>
+      <c r="F18">
+        <v>1566.51</v>
+      </c>
+      <c r="G18">
+        <v>1572.17</v>
+      </c>
+      <c r="H18">
+        <v>1619.3</v>
       </c>
       <c r="I18">
-        <v>9999.99</v>
+        <v>1502.66</v>
       </c>
       <c r="J18">
-        <v>9999.99</v>
+        <v>1502.66</v>
       </c>
       <c r="K18">
-        <v>9999.99</v>
+        <v>1502.66</v>
       </c>
       <c r="L18">
-        <v>9999.99</v>
+        <v>1502.66</v>
       </c>
       <c r="M18">
-        <v>9999.99</v>
+        <v>1502.66</v>
       </c>
       <c r="N18">
-        <v>7851.21</v>
+        <v>1502.66</v>
       </c>
       <c r="O18">
-        <v>7851.21</v>
+        <v>1503</v>
       </c>
       <c r="P18">
-        <v>-34297.59000000001</v>
+        <v>250.2799999999988</v>
       </c>
       <c r="Q18">
-        <v>-14297.55</v>
+        <v>116.6399999999994</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,52 +1525,52 @@
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1043764.44</v>
+        <v>1443764.28</v>
       </c>
       <c r="C19">
-        <v>891229.4</v>
+        <v>1471385.23</v>
       </c>
       <c r="D19">
-        <v>49772.93</v>
+        <v>104137.99</v>
       </c>
       <c r="E19">
-        <v>103757.95</v>
+        <v>21913.03</v>
       </c>
       <c r="F19">
-        <v>118727.65</v>
+        <v>228705.07</v>
       </c>
       <c r="G19">
-        <v>-4971.58</v>
+        <v>193436.55</v>
       </c>
       <c r="H19">
-        <v>84631.39999999999</v>
+        <v>197495.17</v>
       </c>
       <c r="I19">
-        <v>78027.59</v>
+        <v>104313.16</v>
       </c>
       <c r="J19">
-        <v>78027.59</v>
+        <v>104313.16</v>
       </c>
       <c r="K19">
-        <v>78027.59</v>
+        <v>104313.16</v>
       </c>
       <c r="L19">
-        <v>78027.59</v>
+        <v>104313.16</v>
       </c>
       <c r="M19">
-        <v>78027.59</v>
+        <v>104313.16</v>
       </c>
       <c r="N19">
-        <v>74586.55</v>
+        <v>102065.81</v>
       </c>
       <c r="O19">
-        <v>74586.55</v>
+        <v>102065.81</v>
       </c>
       <c r="P19">
-        <v>-152535.0399999999</v>
+        <v>27620.94999999995</v>
       </c>
       <c r="Q19">
-        <v>-20278.27000000002</v>
+        <v>63330.96999999997</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,101 +1578,131 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>199999.92</v>
+        <v>99999.96000000001</v>
       </c>
       <c r="C20">
-        <v>49484.14</v>
-      </c>
-      <c r="F20">
-        <v>7000</v>
+        <v>65702.37</v>
       </c>
       <c r="I20">
-        <v>5356.34</v>
+        <v>9999.99</v>
       </c>
       <c r="J20">
-        <v>5356.34</v>
+        <v>9999.99</v>
       </c>
       <c r="K20">
-        <v>5356.34</v>
+        <v>9999.99</v>
       </c>
       <c r="L20">
-        <v>5356.34</v>
+        <v>9999.99</v>
       </c>
       <c r="M20">
-        <v>5356.34</v>
+        <v>9999.99</v>
       </c>
       <c r="N20">
-        <v>7851.22</v>
+        <v>7851.21</v>
       </c>
       <c r="O20">
-        <v>7851.22</v>
+        <v>7851.21</v>
       </c>
       <c r="P20">
-        <v>-150515.78</v>
+        <v>-34297.59000000001</v>
       </c>
       <c r="Q20">
-        <v>-5722.919999999998</v>
+        <v>-14297.55</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>37</v>
       </c>
+      <c r="B21">
+        <v>1043764.44</v>
+      </c>
       <c r="C21">
-        <v>18716.49</v>
+        <v>891229.4</v>
+      </c>
+      <c r="D21">
+        <v>49772.93</v>
+      </c>
+      <c r="E21">
+        <v>103757.95</v>
+      </c>
+      <c r="F21">
+        <v>118727.65</v>
+      </c>
+      <c r="G21">
+        <v>-4971.58</v>
       </c>
       <c r="H21">
-        <v>18716.49</v>
+        <v>84631.39999999999</v>
+      </c>
+      <c r="I21">
+        <v>78027.59</v>
+      </c>
+      <c r="J21">
+        <v>78027.59</v>
+      </c>
+      <c r="K21">
+        <v>78027.59</v>
+      </c>
+      <c r="L21">
+        <v>78027.59</v>
+      </c>
+      <c r="M21">
+        <v>78027.59</v>
+      </c>
+      <c r="N21">
+        <v>74586.55</v>
+      </c>
+      <c r="O21">
+        <v>74586.55</v>
       </c>
       <c r="P21">
-        <v>18716.49</v>
+        <v>-152535.0399999999</v>
       </c>
       <c r="Q21">
-        <v>18716.49</v>
+        <v>-20278.27000000002</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>38</v>
       </c>
+      <c r="B22">
+        <v>199999.92</v>
+      </c>
       <c r="C22">
-        <v>0.08</v>
-      </c>
-      <c r="E22">
-        <v>-111060.2</v>
-      </c>
-      <c r="G22">
-        <v>111060.28</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>49484.14</v>
+      </c>
+      <c r="F22">
+        <v>7000</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5356.34</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5356.34</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5356.34</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5356.34</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5356.34</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7851.22</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>7851.22</v>
       </c>
       <c r="P22">
-        <v>0.08</v>
+        <v>-150515.78</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-5722.919999999998</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,90 +1710,60 @@
         <v>39</v>
       </c>
       <c r="C23">
-        <v>301329.77</v>
-      </c>
-      <c r="D23">
-        <v>63657.56</v>
-      </c>
-      <c r="E23">
-        <v>29215.28</v>
-      </c>
-      <c r="F23">
-        <v>34921.61</v>
-      </c>
-      <c r="G23">
-        <v>91081.17999999999</v>
+        <v>18716.49</v>
       </c>
       <c r="H23">
-        <v>82454.14</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
+        <v>18716.49</v>
       </c>
       <c r="P23">
-        <v>301329.77</v>
+        <v>18716.49</v>
       </c>
       <c r="Q23">
-        <v>82454.14000000001</v>
+        <v>18716.49</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24">
-        <v>99999.96000000001</v>
-      </c>
       <c r="C24">
-        <v>68907.36</v>
-      </c>
-      <c r="D24">
-        <v>-9292.5</v>
+        <v>0.08</v>
+      </c>
+      <c r="E24">
+        <v>-111060.2</v>
+      </c>
+      <c r="G24">
+        <v>111060.28</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10929.24</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>10929.24</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>10929.24</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10929.24</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10929.24</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11776.83</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11776.83</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>-31092.60000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q24">
-        <v>-9234.059999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,16 +1771,22 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>76015.62</v>
+        <v>301329.77</v>
+      </c>
+      <c r="D25">
+        <v>63657.56</v>
+      </c>
+      <c r="E25">
+        <v>29215.28</v>
       </c>
       <c r="F25">
-        <v>68055.81</v>
+        <v>34921.61</v>
       </c>
       <c r="G25">
-        <v>-3733.33</v>
+        <v>91081.17999999999</v>
       </c>
       <c r="H25">
-        <v>11693.14</v>
+        <v>82454.14</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1765,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>76015.62</v>
+        <v>301329.77</v>
       </c>
       <c r="Q25">
-        <v>11693.13999999999</v>
+        <v>82454.14000000001</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,102 +1821,84 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>424808.88</v>
+        <v>99999.96000000001</v>
       </c>
       <c r="C26">
-        <v>318437.97</v>
+        <v>68907.36</v>
       </c>
       <c r="D26">
-        <v>294.35</v>
-      </c>
-      <c r="E26">
-        <v>11563.7</v>
-      </c>
-      <c r="F26">
-        <v>1285.7</v>
-      </c>
-      <c r="G26">
-        <v>2044.35</v>
-      </c>
-      <c r="H26">
-        <v>7292.23</v>
+        <v>-9292.5</v>
       </c>
       <c r="I26">
-        <v>41295.06</v>
+        <v>10929.24</v>
       </c>
       <c r="J26">
-        <v>41295.06</v>
+        <v>10929.24</v>
       </c>
       <c r="K26">
-        <v>41295.06</v>
+        <v>10929.24</v>
       </c>
       <c r="L26">
-        <v>41295.06</v>
+        <v>10929.24</v>
       </c>
       <c r="M26">
-        <v>41295.06</v>
+        <v>10929.24</v>
       </c>
       <c r="N26">
-        <v>47482.34</v>
+        <v>11776.83</v>
       </c>
       <c r="O26">
-        <v>42000</v>
+        <v>11776.83</v>
       </c>
       <c r="P26">
-        <v>-106370.91</v>
+        <v>-31092.60000000001</v>
       </c>
       <c r="Q26">
-        <v>-27110.61000000004</v>
+        <v>-9234.059999999998</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27">
-        <v>4044.84</v>
-      </c>
       <c r="C27">
-        <v>4103.43</v>
-      </c>
-      <c r="D27">
-        <v>294.35</v>
+        <v>76015.62</v>
       </c>
       <c r="F27">
-        <v>588.7</v>
+        <v>68055.81</v>
       </c>
       <c r="G27">
-        <v>294.35</v>
+        <v>-3733.33</v>
       </c>
       <c r="H27">
-        <v>294.35</v>
+        <v>11693.14</v>
       </c>
       <c r="I27">
-        <v>375.04</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>375.04</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>375.04</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>375.04</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>375.04</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>375.04</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>381.44</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>58.59000000000015</v>
+        <v>76015.62</v>
       </c>
       <c r="Q27">
-        <v>-74.28999999999996</v>
+        <v>11693.13999999999</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1879,90 +1906,102 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>20763.96</v>
+        <v>424808.88</v>
       </c>
       <c r="C28">
-        <v>26509.6</v>
+        <v>318437.97</v>
+      </c>
+      <c r="D28">
+        <v>294.35</v>
       </c>
       <c r="E28">
         <v>11563.7</v>
       </c>
       <c r="F28">
-        <v>234.46</v>
+        <v>1285.7</v>
       </c>
       <c r="G28">
-        <v>1750</v>
+        <v>2044.35</v>
       </c>
       <c r="H28">
-        <v>3500</v>
+        <v>7292.23</v>
       </c>
       <c r="I28">
-        <v>920.02</v>
+        <v>41295.06</v>
       </c>
       <c r="J28">
-        <v>920.02</v>
+        <v>41295.06</v>
       </c>
       <c r="K28">
-        <v>920.02</v>
+        <v>41295.06</v>
       </c>
       <c r="L28">
-        <v>920.02</v>
+        <v>41295.06</v>
       </c>
       <c r="M28">
-        <v>920.02</v>
+        <v>41295.06</v>
       </c>
       <c r="N28">
-        <v>3925.61</v>
+        <v>47482.34</v>
       </c>
       <c r="O28">
-        <v>935.73</v>
+        <v>42000</v>
       </c>
       <c r="P28">
-        <v>5745.639999999999</v>
+        <v>-106370.91</v>
       </c>
       <c r="Q28">
-        <v>5601.279999999999</v>
+        <v>-27110.61000000004</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>45</v>
       </c>
+      <c r="B29">
+        <v>4044.84</v>
+      </c>
       <c r="C29">
-        <v>3546.05</v>
+        <v>4103.43</v>
+      </c>
+      <c r="D29">
+        <v>294.35</v>
       </c>
       <c r="F29">
-        <v>48.17</v>
+        <v>588.7</v>
+      </c>
+      <c r="G29">
+        <v>294.35</v>
       </c>
       <c r="H29">
-        <v>3497.88</v>
+        <v>294.35</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>375.04</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>375.04</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>375.04</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>375.04</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>375.04</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>375.04</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>381.44</v>
       </c>
       <c r="P29">
-        <v>3546.05</v>
+        <v>58.59000000000015</v>
       </c>
       <c r="Q29">
-        <v>3497.88</v>
+        <v>-74.28999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1970,81 +2009,90 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>400000.08</v>
+        <v>20763.96</v>
       </c>
       <c r="C30">
-        <v>284278.89</v>
+        <v>26509.6</v>
+      </c>
+      <c r="E30">
+        <v>11563.7</v>
       </c>
       <c r="F30">
-        <v>414.37</v>
+        <v>234.46</v>
+      </c>
+      <c r="G30">
+        <v>1750</v>
+      </c>
+      <c r="H30">
+        <v>3500</v>
       </c>
       <c r="I30">
-        <v>40000</v>
+        <v>920.02</v>
       </c>
       <c r="J30">
-        <v>40000</v>
+        <v>920.02</v>
       </c>
       <c r="K30">
-        <v>40000</v>
+        <v>920.02</v>
       </c>
       <c r="L30">
-        <v>40000</v>
+        <v>920.02</v>
       </c>
       <c r="M30">
-        <v>40000</v>
+        <v>920.02</v>
       </c>
       <c r="N30">
-        <v>43181.69</v>
+        <v>3925.61</v>
       </c>
       <c r="O30">
-        <v>40682.83</v>
+        <v>935.73</v>
       </c>
       <c r="P30">
-        <v>-115721.19</v>
+        <v>5745.639999999999</v>
       </c>
       <c r="Q30">
-        <v>-36135.47999999998</v>
+        <v>5601.279999999999</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31">
-        <v>20763.96</v>
-      </c>
       <c r="C31">
-        <v>15513.18</v>
-      </c>
-      <c r="E31">
-        <v>-2176.85</v>
+        <v>3546.05</v>
+      </c>
+      <c r="F31">
+        <v>48.17</v>
+      </c>
+      <c r="H31">
+        <v>3497.88</v>
       </c>
       <c r="I31">
-        <v>2294.07</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2294.07</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2294.07</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>2294.07</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2294.07</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3925.61</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>2294.07</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>-5250.779999999999</v>
+        <v>3546.05</v>
       </c>
       <c r="Q31">
-        <v>-662.5299999999988</v>
+        <v>3497.88</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2052,113 +2100,119 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>20763.96</v>
+        <v>400000.08</v>
       </c>
       <c r="C32">
-        <v>12458.34</v>
+        <v>284278.89</v>
+      </c>
+      <c r="F32">
+        <v>414.37</v>
       </c>
       <c r="I32">
-        <v>2076.39</v>
+        <v>40000</v>
       </c>
       <c r="J32">
-        <v>2076.39</v>
+        <v>40000</v>
       </c>
       <c r="K32">
-        <v>2076.39</v>
+        <v>40000</v>
       </c>
       <c r="L32">
-        <v>2076.39</v>
+        <v>40000</v>
       </c>
       <c r="M32">
-        <v>2076.39</v>
+        <v>40000</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>43181.69</v>
       </c>
       <c r="O32">
-        <v>2076.39</v>
+        <v>40682.83</v>
       </c>
       <c r="P32">
-        <v>-8305.619999999999</v>
+        <v>-115721.19</v>
       </c>
       <c r="Q32">
-        <v>-4152.779999999999</v>
+        <v>-36135.47999999998</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>49</v>
       </c>
+      <c r="B33">
+        <v>20763.96</v>
+      </c>
       <c r="C33">
-        <v>3054.84</v>
+        <v>15513.18</v>
       </c>
       <c r="E33">
         <v>-2176.85</v>
       </c>
       <c r="I33">
-        <v>217.68</v>
+        <v>2294.07</v>
       </c>
       <c r="J33">
-        <v>217.68</v>
+        <v>2294.07</v>
       </c>
       <c r="K33">
-        <v>217.68</v>
+        <v>2294.07</v>
       </c>
       <c r="L33">
-        <v>217.68</v>
+        <v>2294.07</v>
       </c>
       <c r="M33">
-        <v>217.68</v>
+        <v>2294.07</v>
       </c>
       <c r="N33">
         <v>3925.61</v>
       </c>
       <c r="O33">
-        <v>217.68</v>
+        <v>2294.07</v>
       </c>
       <c r="P33">
-        <v>3054.84</v>
+        <v>-5250.779999999999</v>
       </c>
       <c r="Q33">
-        <v>3490.25</v>
+        <v>-662.5299999999988</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>50</v>
       </c>
+      <c r="B34">
+        <v>20763.96</v>
+      </c>
       <c r="C34">
-        <v>634.49</v>
-      </c>
-      <c r="F34">
-        <v>634.49</v>
+        <v>12458.34</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2076.39</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2076.39</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2076.39</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2076.39</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2076.39</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>2076.39</v>
       </c>
       <c r="P34">
-        <v>634.49</v>
+        <v>-8305.619999999999</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-4152.779999999999</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2166,140 +2220,113 @@
         <v>51</v>
       </c>
       <c r="C35">
-        <v>634.49</v>
-      </c>
-      <c r="F35">
-        <v>634.49</v>
+        <v>3054.84</v>
+      </c>
+      <c r="E35">
+        <v>-2176.85</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>217.68</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>217.68</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>217.68</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>217.68</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>217.68</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>3925.61</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>217.68</v>
       </c>
       <c r="P35">
-        <v>634.49</v>
+        <v>3054.84</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>3490.25</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36">
-        <v>932296.08</v>
-      </c>
       <c r="C36">
-        <v>971459.48</v>
-      </c>
-      <c r="D36">
-        <v>48840.88</v>
-      </c>
-      <c r="E36">
-        <v>203207.52</v>
+        <v>634.49</v>
       </c>
       <c r="F36">
-        <v>114459.39</v>
-      </c>
-      <c r="G36">
-        <v>75965.92999999999</v>
-      </c>
-      <c r="H36">
-        <v>54647.41</v>
+        <v>634.49</v>
       </c>
       <c r="I36">
-        <v>68167.58</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>68167.57000000001</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>68167.57000000001</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>68167.57000000001</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>68167.58</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>65332.9</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>68167.58</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>39163.40000000002</v>
+        <v>634.49</v>
       </c>
       <c r="Q36">
-        <v>-16354.83999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37">
-        <v>9999.959999999999</v>
-      </c>
       <c r="C37">
-        <v>8352.4</v>
-      </c>
-      <c r="D37">
-        <v>14.99</v>
-      </c>
-      <c r="E37">
-        <v>7.99</v>
+        <v>634.49</v>
       </c>
       <c r="F37">
-        <v>1054.15</v>
-      </c>
-      <c r="H37">
-        <v>1289.13</v>
+        <v>634.49</v>
       </c>
       <c r="I37">
-        <v>997.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>997.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>997.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>997.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>997.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>997.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>-1647.559999999999</v>
+        <v>634.49</v>
       </c>
       <c r="Q37">
-        <v>-706.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2307,37 +2334,52 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>7371.24</v>
+        <v>932296.08</v>
       </c>
       <c r="C38">
-        <v>8348.33</v>
+        <v>971459.48</v>
+      </c>
+      <c r="D38">
+        <v>48840.88</v>
+      </c>
+      <c r="E38">
+        <v>203207.52</v>
+      </c>
+      <c r="F38">
+        <v>114459.39</v>
+      </c>
+      <c r="G38">
+        <v>75965.92999999999</v>
+      </c>
+      <c r="H38">
+        <v>54647.41</v>
       </c>
       <c r="I38">
-        <v>737.12</v>
+        <v>68167.58</v>
       </c>
       <c r="J38">
-        <v>737.12</v>
+        <v>68167.57000000001</v>
       </c>
       <c r="K38">
-        <v>737.12</v>
+        <v>68167.57000000001</v>
       </c>
       <c r="L38">
-        <v>737.12</v>
+        <v>68167.57000000001</v>
       </c>
       <c r="M38">
-        <v>737.12</v>
+        <v>68167.58</v>
       </c>
       <c r="N38">
-        <v>3925.61</v>
+        <v>65332.9</v>
       </c>
       <c r="O38">
-        <v>737.12</v>
+        <v>68167.58</v>
       </c>
       <c r="P38">
-        <v>977.0900000000001</v>
+        <v>39163.40000000002</v>
       </c>
       <c r="Q38">
-        <v>2451.37</v>
+        <v>-16354.83999999997</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2345,40 +2387,49 @@
         <v>55</v>
       </c>
       <c r="B39">
-        <v>3901.56</v>
+        <v>9999.959999999999</v>
       </c>
       <c r="C39">
-        <v>3555.36</v>
+        <v>8352.4</v>
+      </c>
+      <c r="D39">
+        <v>14.99</v>
+      </c>
+      <c r="E39">
+        <v>7.99</v>
       </c>
       <c r="F39">
-        <v>1214.46</v>
+        <v>1054.15</v>
+      </c>
+      <c r="H39">
+        <v>1289.13</v>
       </c>
       <c r="I39">
-        <v>390.15</v>
+        <v>997.6900000000001</v>
       </c>
       <c r="J39">
-        <v>390.15</v>
+        <v>997.6900000000001</v>
       </c>
       <c r="K39">
-        <v>390.15</v>
+        <v>997.6900000000001</v>
       </c>
       <c r="L39">
-        <v>390.15</v>
+        <v>997.6900000000001</v>
       </c>
       <c r="M39">
-        <v>390.15</v>
+        <v>997.6900000000001</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>390.15</v>
+        <v>997.6900000000001</v>
       </c>
       <c r="P39">
-        <v>-346.1999999999998</v>
+        <v>-1647.559999999999</v>
       </c>
       <c r="Q39">
-        <v>-780.2999999999997</v>
+        <v>-706.25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2386,37 +2437,37 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>60000</v>
+        <v>7371.24</v>
       </c>
       <c r="C40">
-        <v>39925.6</v>
+        <v>8348.33</v>
       </c>
       <c r="I40">
-        <v>6000</v>
+        <v>737.12</v>
       </c>
       <c r="J40">
-        <v>6000</v>
+        <v>737.12</v>
       </c>
       <c r="K40">
-        <v>6000</v>
+        <v>737.12</v>
       </c>
       <c r="L40">
-        <v>6000</v>
+        <v>737.12</v>
       </c>
       <c r="M40">
-        <v>6000</v>
+        <v>737.12</v>
       </c>
       <c r="N40">
-        <v>3925.6</v>
+        <v>3925.61</v>
       </c>
       <c r="O40">
-        <v>6000</v>
+        <v>737.12</v>
       </c>
       <c r="P40">
-        <v>-20074.4</v>
+        <v>977.0900000000001</v>
       </c>
       <c r="Q40">
-        <v>-8074.400000000001</v>
+        <v>2451.37</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2424,93 +2475,78 @@
         <v>57</v>
       </c>
       <c r="B41">
-        <v>6229.2</v>
+        <v>3901.56</v>
       </c>
       <c r="C41">
-        <v>5041.65</v>
-      </c>
-      <c r="D41">
-        <v>286.54</v>
+        <v>3555.36</v>
       </c>
       <c r="F41">
-        <v>1160.46</v>
-      </c>
-      <c r="G41">
-        <v>29.06</v>
+        <v>1214.46</v>
       </c>
       <c r="I41">
-        <v>594.27</v>
+        <v>390.15</v>
       </c>
       <c r="J41">
-        <v>594.26</v>
+        <v>390.15</v>
       </c>
       <c r="K41">
-        <v>594.26</v>
+        <v>390.15</v>
       </c>
       <c r="L41">
-        <v>594.26</v>
+        <v>390.15</v>
       </c>
       <c r="M41">
-        <v>594.27</v>
+        <v>390.15</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>594.27</v>
+        <v>390.15</v>
       </c>
       <c r="P41">
-        <v>-1187.55</v>
+        <v>-346.1999999999998</v>
       </c>
       <c r="Q41">
-        <v>-1188.530000000001</v>
+        <v>-780.2999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>58</v>
       </c>
+      <c r="B42">
+        <v>60000</v>
+      </c>
       <c r="C42">
-        <v>1239.1</v>
-      </c>
-      <c r="D42">
-        <v>1291.27</v>
-      </c>
-      <c r="F42">
-        <v>-104.13</v>
-      </c>
-      <c r="G42">
-        <v>130.16</v>
-      </c>
-      <c r="H42">
-        <v>-78.2</v>
+        <v>39925.6</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>3925.6</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P42">
-        <v>1239.1</v>
+        <v>-20074.4</v>
       </c>
       <c r="Q42">
-        <v>-78.20000000000005</v>
+        <v>-8074.400000000001</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2518,133 +2554,227 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>744794.16</v>
+        <v>6229.2</v>
       </c>
       <c r="C43">
-        <v>829664.96</v>
+        <v>5041.65</v>
       </c>
       <c r="D43">
-        <v>47110.96</v>
-      </c>
-      <c r="E43">
-        <v>203199.53</v>
+        <v>286.54</v>
       </c>
       <c r="F43">
-        <v>107790.64</v>
+        <v>1160.46</v>
       </c>
       <c r="G43">
-        <v>71806.71000000001</v>
-      </c>
-      <c r="H43">
-        <v>53436.48</v>
+        <v>29.06</v>
       </c>
       <c r="I43">
-        <v>49448.36</v>
+        <v>594.27</v>
       </c>
       <c r="J43">
-        <v>49448.36</v>
+        <v>594.26</v>
       </c>
       <c r="K43">
-        <v>49448.36</v>
+        <v>594.26</v>
       </c>
       <c r="L43">
-        <v>49448.36</v>
+        <v>594.26</v>
       </c>
       <c r="M43">
-        <v>49448.36</v>
+        <v>594.27</v>
       </c>
       <c r="N43">
-        <v>49630.48</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>49448.36</v>
+        <v>594.27</v>
       </c>
       <c r="P43">
-        <v>84870.79999999993</v>
+        <v>-1187.55</v>
       </c>
       <c r="Q43">
-        <v>4170.239999999991</v>
+        <v>-1188.530000000001</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44">
-        <v>99999.96000000001</v>
-      </c>
       <c r="C44">
-        <v>71851.14999999999</v>
+        <v>1239.1</v>
+      </c>
+      <c r="D44">
+        <v>1291.27</v>
+      </c>
+      <c r="F44">
+        <v>-104.13</v>
       </c>
       <c r="G44">
-        <v>4000</v>
+        <v>130.16</v>
+      </c>
+      <c r="H44">
+        <v>-78.2</v>
       </c>
       <c r="I44">
-        <v>9999.99</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>9999.99</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>9999.99</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>9999.99</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>9999.99</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>7851.21</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>9999.99</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>-28148.81000000001</v>
+        <v>1239.1</v>
       </c>
       <c r="Q44">
-        <v>-12148.77</v>
+        <v>-78.20000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>61</v>
       </c>
+      <c r="B45">
+        <v>744794.16</v>
+      </c>
       <c r="C45">
+        <v>829664.96</v>
+      </c>
+      <c r="D45">
+        <v>47110.96</v>
+      </c>
+      <c r="E45">
+        <v>203199.53</v>
+      </c>
+      <c r="F45">
+        <v>107790.64</v>
+      </c>
+      <c r="G45">
+        <v>71806.71000000001</v>
+      </c>
+      <c r="H45">
+        <v>53436.48</v>
+      </c>
+      <c r="I45">
+        <v>49448.36</v>
+      </c>
+      <c r="J45">
+        <v>49448.36</v>
+      </c>
+      <c r="K45">
+        <v>49448.36</v>
+      </c>
+      <c r="L45">
+        <v>49448.36</v>
+      </c>
+      <c r="M45">
+        <v>49448.36</v>
+      </c>
+      <c r="N45">
+        <v>49630.48</v>
+      </c>
+      <c r="O45">
+        <v>49448.36</v>
+      </c>
+      <c r="P45">
+        <v>84870.79999999993</v>
+      </c>
+      <c r="Q45">
+        <v>4170.239999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>99999.96000000001</v>
+      </c>
+      <c r="C46">
+        <v>71851.14999999999</v>
+      </c>
+      <c r="G46">
+        <v>4000</v>
+      </c>
+      <c r="I46">
+        <v>9999.99</v>
+      </c>
+      <c r="J46">
+        <v>9999.99</v>
+      </c>
+      <c r="K46">
+        <v>9999.99</v>
+      </c>
+      <c r="L46">
+        <v>9999.99</v>
+      </c>
+      <c r="M46">
+        <v>9999.99</v>
+      </c>
+      <c r="N46">
+        <v>7851.21</v>
+      </c>
+      <c r="O46">
+        <v>9999.99</v>
+      </c>
+      <c r="P46">
+        <v>-28148.81000000001</v>
+      </c>
+      <c r="Q46">
+        <v>-12148.77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47">
         <v>3480.93</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>137.12</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>3343.81</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>3480.93</v>
       </c>
-      <c r="Q45">
+      <c r="Q47">
         <v>0</v>
       </c>
     </row>
